--- a/src/excels/immune/new_tese/canonical/canonical_genes_filtered_0.2.xlsx
+++ b/src/excels/immune/new_tese/canonical/canonical_genes_filtered_0.2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>Cluster</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Mertk</t>
   </si>
   <si>
-    <t>Cd86</t>
-  </si>
-  <si>
     <t>Ctss</t>
   </si>
   <si>
-    <t>Ptprc</t>
-  </si>
-  <si>
     <t>Imm.M0Like.0</t>
   </si>
   <si>
@@ -84,10 +78,7 @@
     <t>H2-Eb1</t>
   </si>
   <si>
-    <t>Dpp4</t>
-  </si>
-  <si>
-    <t>Cybb</t>
+    <t>Ciita</t>
   </si>
   <si>
     <t>Imm.MHCII.0</t>
@@ -114,9 +105,6 @@
     <t>Usp18</t>
   </si>
   <si>
-    <t>Stat3</t>
-  </si>
-  <si>
     <t>Imm.Interferon.0</t>
   </si>
   <si>
@@ -138,19 +126,13 @@
     <t>Ctsd</t>
   </si>
   <si>
+    <t>Ftl1</t>
+  </si>
+  <si>
     <t>Spp1</t>
   </si>
   <si>
     <t>Fabp5</t>
-  </si>
-  <si>
-    <t>Ctsl</t>
-  </si>
-  <si>
-    <t>Trem2</t>
-  </si>
-  <si>
-    <t>Myo1f</t>
   </si>
   <si>
     <t>Fth1</t>
@@ -559,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0.5900871753692627</v>
@@ -595,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.3081689476966858</v>
@@ -609,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.2840373516082764</v>
@@ -623,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0.2203921973705292</v>
@@ -637,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0.244189664721489</v>
@@ -651,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0.1870851963758469</v>
@@ -665,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.3282490670681</v>
@@ -679,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.04550057277083397</v>
@@ -693,349 +675,265 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.01954761892557144</v>
+        <v>-0.1872172802686691</v>
       </c>
       <c r="D10">
-        <v>0.2985781990521327</v>
+        <v>0.495260663507109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.1872172802686691</v>
+        <v>0.7888805866241455</v>
       </c>
       <c r="D11">
-        <v>0.495260663507109</v>
+        <v>0.6593406593406593</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12">
-        <v>-0.5954159498214722</v>
+        <v>0.4895345866680145</v>
       </c>
       <c r="D12">
-        <v>0.5853080568720379</v>
+        <v>0.8434065934065934</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>0.7888805866241455</v>
+        <v>0.454164057970047</v>
       </c>
       <c r="D13">
-        <v>0.6593406593406593</v>
+        <v>0.8543956043956044</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>0.4895345866680145</v>
+        <v>0.4002310931682587</v>
       </c>
       <c r="D14">
-        <v>0.8434065934065934</v>
+        <v>0.7335164835164835</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>0.454164057970047</v>
+        <v>0.3987973630428314</v>
       </c>
       <c r="D15">
-        <v>0.8543956043956044</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0.4002310931682587</v>
+        <v>0.3818937242031097</v>
       </c>
       <c r="D16">
-        <v>0.7335164835164835</v>
+        <v>0.6373626373626373</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>0.3987973630428314</v>
+        <v>0.4483467638492584</v>
       </c>
       <c r="D17">
-        <v>0.75</v>
+        <v>0.4835164835164835</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>0.3818937242031097</v>
+        <v>0.5787144303321838</v>
       </c>
       <c r="D18">
-        <v>0.6373626373626373</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>0.4483467638492584</v>
+        <v>0.229726642370224</v>
       </c>
       <c r="D19">
-        <v>0.4835164835164835</v>
+        <v>0.6016483516483516</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>0.5787144303321838</v>
+        <v>0.3351731598377228</v>
       </c>
       <c r="D20">
-        <v>0.3571428571428572</v>
+        <v>0.852017937219731</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0.229726642370224</v>
+        <v>0.5694880485534668</v>
       </c>
       <c r="D21">
-        <v>0.6016483516483516</v>
+        <v>0.3991031390134529</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0.2858276665210724</v>
+        <v>0.4630667865276337</v>
       </c>
       <c r="D22">
-        <v>0.3681318681318682</v>
+        <v>0.5112107623318386</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>0.07414576411247253</v>
+        <v>0.2984011769294739</v>
       </c>
       <c r="D23">
-        <v>0.7060439560439561</v>
+        <v>0.8385650224215246</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>0.3351731598377228</v>
+        <v>0.287078857421875</v>
       </c>
       <c r="D24">
-        <v>0.852017937219731</v>
+        <v>0.7085201793721974</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>0.5694880485534668</v>
+        <v>0.2182062566280365</v>
       </c>
       <c r="D25">
-        <v>0.3991031390134529</v>
+        <v>0.5964125560538116</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>0.4630667865276337</v>
+        <v>0.1176583170890808</v>
       </c>
       <c r="D26">
-        <v>0.5112107623318386</v>
+        <v>0.7713004484304933</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0.2984011769294739</v>
+        <v>0.1129345670342445</v>
       </c>
       <c r="D27">
-        <v>0.8385650224215246</v>
+        <v>0.5650224215246636</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.287078857421875</v>
+        <v>0.07088322937488556</v>
       </c>
       <c r="D28">
-        <v>0.7085201793721974</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>0.2182062566280365</v>
-      </c>
-      <c r="D29">
-        <v>0.5964125560538116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>0.3670050203800201</v>
-      </c>
-      <c r="D30">
-        <v>0.3587443946188341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>0.1176583170890808</v>
-      </c>
-      <c r="D31">
-        <v>0.7713004484304933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32">
-        <v>0.1129345670342445</v>
-      </c>
-      <c r="D32">
-        <v>0.5650224215246636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>0.07088322937488556</v>
-      </c>
-      <c r="D33">
         <v>0.600896860986547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>-0.256210595369339</v>
-      </c>
-      <c r="D34">
-        <v>0.6412556053811659</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1064,10 +962,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>5.328258991241455</v>
@@ -1078,10 +976,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>5.333882331848145</v>
@@ -1092,10 +990,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>4.932478904724121</v>
@@ -1106,10 +1004,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5">
         <v>4.92715311050415</v>
@@ -1120,30 +1018,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>6.414427757263184</v>
+        <v>6.172420024871826</v>
       </c>
       <c r="D6">
-        <v>0.3863636363636364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2.338463544845581</v>
-      </c>
-      <c r="D7">
-        <v>0.3863636363636364</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1172,10 +1056,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2.863122940063477</v>
@@ -1186,10 +1070,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>4.564236640930176</v>
@@ -1200,10 +1084,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2.12287425994873</v>
@@ -1214,10 +1098,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3.268746376037598</v>
@@ -1228,10 +1112,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6">
         <v>3.011718273162842</v>
@@ -1242,10 +1126,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>4.026572227478027</v>
@@ -1256,30 +1140,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>3.895071506500244</v>
       </c>
       <c r="D8">
         <v>0.4102564102564102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>0.8633231520652771</v>
-      </c>
-      <c r="D9">
-        <v>0.6153846153846154</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1308,10 +1178,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>4.12397289276123</v>
@@ -1322,10 +1192,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2.719516038894653</v>
@@ -1336,10 +1206,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2.592077493667603</v>
@@ -1350,10 +1220,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1.726879477500916</v>
@@ -1364,10 +1234,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1.632722139358521</v>
@@ -1378,10 +1248,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1.492807388305664</v>
@@ -1392,142 +1262,142 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>1.38322651386261</v>
+        <v>2.148448467254639</v>
       </c>
       <c r="D8">
-        <v>0.4038461538461539</v>
+        <v>0.3653846153846154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>1.915103912353516</v>
+        <v>1.38322651386261</v>
       </c>
       <c r="D9">
-        <v>0.3076923076923077</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>1.850828051567078</v>
+        <v>1.915103912353516</v>
       </c>
       <c r="D10">
-        <v>0.2692307692307692</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
       <c r="C11">
-        <v>0.5422185063362122</v>
+        <v>0.3970088064670563</v>
       </c>
       <c r="D11">
-        <v>0.4038461538461539</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>0.3709845840930939</v>
+        <v>0.4431584179401398</v>
       </c>
       <c r="D12">
-        <v>0.8269230769230769</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>0.3970088064670563</v>
+        <v>2.478747844696045</v>
       </c>
       <c r="D13">
-        <v>0.4423076923076923</v>
+        <v>0.5447761194029851</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>0.4431584179401398</v>
+        <v>2.417728185653687</v>
       </c>
       <c r="D14">
-        <v>0.2884615384615384</v>
+        <v>0.582089552238806</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>2.478747844696045</v>
+        <v>1.087131977081299</v>
       </c>
       <c r="D15">
-        <v>0.5447761194029851</v>
+        <v>0.7910447761194029</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>2.417728185653687</v>
+        <v>1.073116302490234</v>
       </c>
       <c r="D16">
-        <v>0.582089552238806</v>
+        <v>0.7014925373134329</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>1.087131977081299</v>
+        <v>0.9006564021110535</v>
       </c>
       <c r="D17">
-        <v>0.7910447761194029</v>
+        <v>0.7761194029850746</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1535,152 +1405,110 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>1.073116302490234</v>
+        <v>1.661806583404541</v>
       </c>
       <c r="D18">
-        <v>0.7014925373134329</v>
+        <v>0.3880597014925373</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.9006564021110535</v>
+        <v>1.80559515953064</v>
       </c>
       <c r="D19">
-        <v>0.7761194029850746</v>
+        <v>0.3358208955223881</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
       <c r="C20">
-        <v>0.6136776208877563</v>
+        <v>1.832482695579529</v>
       </c>
       <c r="D20">
-        <v>0.8731343283582089</v>
+        <v>0.2761194029850746</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>1.661806583404541</v>
+        <v>1.391711235046387</v>
       </c>
       <c r="D21">
-        <v>0.3880597014925373</v>
+        <v>0.3059701492537313</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>1.80559515953064</v>
+        <v>1.102681040763855</v>
       </c>
       <c r="D22">
-        <v>0.3358208955223881</v>
+        <v>0.3432835820895522</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>1.391711235046387</v>
+        <v>0.3126291036605835</v>
       </c>
       <c r="D23">
-        <v>0.3059701492537313</v>
+        <v>0.4776119402985075</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C24">
-        <v>1.102681040763855</v>
+        <v>1.441179394721985</v>
       </c>
       <c r="D24">
-        <v>0.3432835820895522</v>
+        <v>0.2014925373134328</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>0.3126291036605835</v>
+        <v>0.1356581151485443</v>
       </c>
       <c r="D25">
-        <v>0.4776119402985075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>0.5925296545028687</v>
-      </c>
-      <c r="D26">
-        <v>0.3582089552238806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>1.441179394721985</v>
-      </c>
-      <c r="D27">
-        <v>0.2014925373134328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28">
-        <v>0.1356581151485443</v>
-      </c>
-      <c r="D28">
         <v>0.2985074626865671</v>
       </c>
     </row>
@@ -1710,10 +1538,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>6.067361831665039</v>
@@ -1724,10 +1552,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>6.214034557342529</v>
@@ -1738,10 +1566,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>8.255138397216797</v>
@@ -1752,10 +1580,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>9.518579483032227</v>
@@ -1790,10 +1618,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>10.31621265411377</v>
@@ -1804,10 +1632,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>8.833640098571777</v>
@@ -1818,10 +1646,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>8.53589916229248</v>
@@ -1832,10 +1660,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>8.411818504333496</v>
@@ -1846,10 +1674,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>8.655964851379395</v>
